--- a/data/trans_orig/IP34_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP34_2023-Edad-trans_orig.xlsx
@@ -673,70 +673,72 @@
           <t>0/4</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>994</v>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>112286</v>
+        <v>5652</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>98848</v>
+        <v>4601</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>403</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>211134</v>
+        <v>10253</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -744,70 +746,70 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>4601</v>
+        <v>354</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>10253</v>
+        <v>354</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -815,70 +817,70 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>112286</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>354</v>
+        <v>98848</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>354</v>
+        <v>211134</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>96,96%</t>
         </is>
       </c>
     </row>
@@ -956,73 +958,75 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>994</v>
+          <t>5/9</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>371523</v>
+        <v>7295</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>421</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>323583</v>
+        <v>10549</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>859</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>695106</v>
+        <v>17844</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -1030,70 +1034,70 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>25944</v>
+        <v>1714</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>25102</v>
+        <v>2082</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>51047</v>
+        <v>3795</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -1101,70 +1105,70 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5243</v>
+        <v>196046</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>2956</v>
+        <v>185637</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>8198</v>
+        <v>381684</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>96,33%</t>
         </is>
       </c>
     </row>
@@ -1176,10 +1180,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -1197,10 +1201,10 @@
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
@@ -1218,10 +1222,10 @@
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
@@ -1242,73 +1246,75 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>994</v>
+          <t>10/15</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>196046</v>
+        <v>25944</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>185637</v>
+        <v>25102</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>520</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>381684</v>
+        <v>51047</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -1316,70 +1322,70 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5243</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>2956</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>7295</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>10549</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>8,58%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>27</v>
-      </c>
       <c r="N13" s="2" t="n">
-        <v>17844</v>
+        <v>8198</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -1387,70 +1393,70 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1714</v>
+        <v>371523</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2082</v>
+        <v>323583</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5</v>
+        <v>859</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3795</v>
+        <v>695106</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>93,67%</t>
         </is>
       </c>
     </row>
@@ -1462,10 +1468,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1483,10 +1489,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1504,10 +1510,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1531,70 +1537,72 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>994</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>909</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>679856</v>
+        <v>38892</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>873</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>608069</v>
+        <v>40252</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1782</v>
+        <v>120</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1287925</v>
+        <v>79144</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -1602,70 +1610,70 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>38892</v>
+        <v>6956</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>40252</v>
+        <v>5391</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>79144</v>
+        <v>12347</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -1673,70 +1681,70 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>10</v>
+        <v>909</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6956</v>
+        <v>679856</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>8</v>
+        <v>873</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>5391</v>
+        <v>608069</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>18</v>
+        <v>1782</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>12347</v>
+        <v>1287925</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
